--- a/output/zamienie/2019/sheets/year_2019.xlsx
+++ b/output/zamienie/2019/sheets/year_2019.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29.68387096774193</v>
+        <v>42.03721777972406</v>
       </c>
       <c r="C2" t="n">
-        <v>27.07741935483871</v>
+        <v>40.04147880386927</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.875</v>
+        <v>43.6003644117844</v>
       </c>
       <c r="C3" t="n">
-        <v>18.33571428571429</v>
+        <v>38.25733634538052</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>30.51935483870967</v>
+        <v>41.767114917284</v>
       </c>
       <c r="C4" t="n">
-        <v>21.55483870967742</v>
+        <v>42.13696829729344</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.08333333333333</v>
+        <v>44.407874467759</v>
       </c>
       <c r="C5" t="n">
-        <v>21.52666666666667</v>
+        <v>40.61480598548441</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>33.21612903225807</v>
+        <v>42.49568471967665</v>
       </c>
       <c r="C6" t="n">
-        <v>23.38064516129032</v>
+        <v>41.58991399355513</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27.16666666666666</v>
+        <v>38.68464917111935</v>
       </c>
       <c r="C7" t="n">
-        <v>25.74666666666667</v>
+        <v>37.90851235784378</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.05483870967742</v>
+        <v>40.93379884426236</v>
       </c>
       <c r="C8" t="n">
-        <v>24.65806451612903</v>
+        <v>36.64263934092819</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3225806451613</v>
+        <v>37.57565806514177</v>
       </c>
       <c r="C9" t="n">
-        <v>28.12258064516129</v>
+        <v>36.85844107136644</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.44</v>
+        <v>42.80704205894803</v>
       </c>
       <c r="C10" t="n">
-        <v>24.52666666666666</v>
+        <v>39.76311278462107</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.45806451612903</v>
+        <v>37.14499283259543</v>
       </c>
       <c r="C11" t="n">
-        <v>23.21290322580645</v>
+        <v>37.07073955680509</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>36.87666666666667</v>
+        <v>42.11138763178074</v>
       </c>
       <c r="C12" t="n">
-        <v>35.47000000000001</v>
+        <v>41.79387359108711</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.02903225806451</v>
+        <v>40.43778604356581</v>
       </c>
       <c r="C13" t="n">
-        <v>24.40322580645161</v>
+        <v>40.68015361269639</v>
       </c>
     </row>
   </sheetData>
